--- a/Resource/Mesh/Weapon/애니메이션 이름.xlsx
+++ b/Resource/Mesh/Weapon/애니메이션 이름.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="13995" windowHeight="7170"/>
@@ -443,7 +443,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
